--- a/spliced/walkingToRunning/2023-04-03_16-59-39/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-59-39/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.508883299627843</v>
+        <v>0.3823793908064108</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.002422943165127922</v>
+        <v>0.1271628014236173</v>
       </c>
       <c r="C2" t="n">
-        <v>2.046859258132451</v>
+        <v>0.7923793438529929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6158849579813541</v>
+        <v>-0.654463132950649</v>
       </c>
       <c r="B3" t="n">
-        <v>2.116229075411831</v>
+        <v>0.1985160146708309</v>
       </c>
       <c r="C3" t="n">
-        <v>1.455997234551682</v>
+        <v>3.398013450712434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01971819700372118</v>
+        <v>-0.3379178534003359</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6282498050110437</v>
+        <v>0.9397114328064812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3916948820751901</v>
+        <v>2.251024748018254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3823793908064108</v>
+        <v>0.9759882148647756</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1271628014236173</v>
+        <v>-0.4570092331052646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7923793438529929</v>
+        <v>-1.31463850730377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.654463132950649</v>
+        <v>0.7107792543491266</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1985160146708309</v>
+        <v>-2.305014370311596</v>
       </c>
       <c r="C6" t="n">
-        <v>3.398013450712434</v>
+        <v>-2.200793484742744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3379178534003359</v>
+        <v>1.819485336698153</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9397114328064812</v>
+        <v>0.8139906653559265</v>
       </c>
       <c r="C7" t="n">
-        <v>2.251024748018254</v>
+        <v>-4.443760702123214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9759882148647756</v>
+        <v>-0.05035778864519869</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4570092331052646</v>
+        <v>1.772313159173635</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.31463850730377</v>
+        <v>-4.182391558642067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7107792543491266</v>
+        <v>-4.364394300271125</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.305014370311596</v>
+        <v>-2.634685883971363</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.200793484742744</v>
+        <v>5.322240739592762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.819485336698153</v>
+        <v>-6.08671497237609</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8139906653559265</v>
+        <v>2.640464704074256</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.443760702123214</v>
+        <v>8.124276500721788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.05035778864519869</v>
+        <v>2.494929860399702</v>
       </c>
       <c r="B11" t="n">
-        <v>1.772313159173635</v>
+        <v>7.262385212313916</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.182391558642067</v>
+        <v>0.6411508452829229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.364394300271125</v>
+        <v>5.578452347460839</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.634685883971363</v>
+        <v>-3.65870345949509</v>
       </c>
       <c r="C12" t="n">
-        <v>5.322240739592762</v>
+        <v>-2.740860200053031</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-6.08671497237609</v>
+        <v>5.107148140512828</v>
       </c>
       <c r="B13" t="n">
-        <v>2.640464704074256</v>
+        <v>-6.417216838576375</v>
       </c>
       <c r="C13" t="n">
-        <v>8.124276500721788</v>
+        <v>0.5648952454172127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.494929860399702</v>
+        <v>2.179000979318631</v>
       </c>
       <c r="B14" t="n">
-        <v>7.262385212313916</v>
+        <v>-0.9147634414166442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6411508452829229</v>
+        <v>-6.292253988029406</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.578452347460839</v>
+        <v>-4.380800012518604</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.65870345949509</v>
+        <v>-5.969521393950635</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.740860200053031</v>
+        <v>0.8675613487578511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.107148140512828</v>
+        <v>-4.858158437369363</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.417216838576375</v>
+        <v>3.663422577044154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5648952454172127</v>
+        <v>4.786025135304881</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.179000979318631</v>
+        <v>-2.86569286016895</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9147634414166442</v>
+        <v>9.76977250463675</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.292253988029406</v>
+        <v>-0.04881703791199454</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.380800012518604</v>
+        <v>-3.519123984881036</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.969521393950635</v>
+        <v>7.458226036650824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8675613487578511</v>
+        <v>-5.801270187837286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.858158437369363</v>
+        <v>2.29803731803496</v>
       </c>
       <c r="B19" t="n">
-        <v>3.663422577044154</v>
+        <v>-5.991696847046798</v>
       </c>
       <c r="C19" t="n">
-        <v>4.786025135304881</v>
+        <v>-5.515202137812292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.86569286016895</v>
+        <v>2.744500100300473</v>
       </c>
       <c r="B20" t="n">
-        <v>9.76977250463675</v>
+        <v>-0.9322929135791883</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04881703791199454</v>
+        <v>-6.360266283544435</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.519123984881036</v>
+        <v>-5.222654512415387</v>
       </c>
       <c r="B21" t="n">
-        <v>7.458226036650824</v>
+        <v>-0.6178251758451783</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.801270187837286</v>
+        <v>4.528362251701193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-5.398936099406894</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6328901628238506</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.700743228821124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.420953338994997</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9.947797151136147</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.9126796104522215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.05836680110209574</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.935851176995778</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.390108103527448</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.732191570142168</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-8.935019577985051</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.243645213661406</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.33527006372728</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-10.98798226935694</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-9.769438461483361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.9925953642860486</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.305789720325507</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.166530378201873</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-4.912634885748004</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.700535394758443</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.522403849981169</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.346227371255714</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.616383455186579</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.352327122114249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.400979183107231</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13.99426472249469</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.426351852441958</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4026054789882916</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-6.858872019183412</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.158537519539816</v>
       </c>
     </row>
   </sheetData>
